--- a/logs/charts_results_files/data_ws_4.xlsx
+++ b/logs/charts_results_files/data_ws_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D591829-BEFD-4376-B067-3FB6A80BE4CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA3A774-9592-4DFE-A2EF-EB3DD53921CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6024" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6030" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Propensities" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>BA</a:t>
+              <a:t>WS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2598,16 +2598,16 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>-0.12776777481716015</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>-9.9332324003479494E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>-0.104494854369288</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>-0.16980196507526801</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>-9.2502271950939394E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>-0.15859748141105301</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>-8.57957786756601E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>-0.17494785881168001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>-0.11114366287467101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>-0.140274472753389</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>-7.1869823019612894E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>-0.16183837505076001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>-0.117596472693124</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>-0.122329470631308</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>-0.17279396922774401</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>-0.14179800627633601</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>-0.16474335145625599</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>-9.1076985166903698E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>-0.155422787061061</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>-0.13290816727994501</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>-0.17527903420610999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>-0.15071803089563199</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>-9.7975808929429697E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>-8.7249330386332702E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>-0.17058807921633801</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>-0.15587405846646599</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>-9.5708633682951003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>-9.3297262578453596E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>-0.112725101017442</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>-0.110589713217149</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3363,13 +3363,13 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>360.79973333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>365.178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>360.42599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>359.53399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>360.358</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>356.584</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>358.49200000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>362.86799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>357.214</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>362.786</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>359.66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>361.13799999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>365.67399999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>358.59199999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>362.30399999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>361.13200000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>358.88600000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>366.358</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>358.01600000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>364.18799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>353.67200000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>358.83600000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>363.49200000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>361.858</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>361.89400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>363.33199999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>361.22399999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>361.48200000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>361.702</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>357.36799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4125,14 +4125,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>5.3265737737737684</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>5.3514154154154099</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>5.3125825825825803</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>5.3086526526526496</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>5.3135035035035001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>5.3097457457457402</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>5.3217097097097099</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>5.3461241241241204</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>5.31212212212212</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>5.3332932932932904</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>5.3237457457457404</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>5.3458298298298299</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>5.3393173173173096</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>5.3324124124124097</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>5.3266326326326299</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>5.3421081081080999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>5.3124284284284196</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>5.3522982982982903</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>5.2994614614614601</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>5.3327627627627603</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>5.3049749749749697</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>5.3335855855855803</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>5.3420120120120096</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>5.3308428428428396</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>5.3377017017017003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>5.3279679679679601</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>5.3220760760760699</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>5.3104444444444399</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>5.3292732732732704</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>5.2970670670670597</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>

--- a/logs/charts_results_files/data_ws_4.xlsx
+++ b/logs/charts_results_files/data_ws_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA3A774-9592-4DFE-A2EF-EB3DD53921CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9807AD7-6399-4164-8FD1-8ABB6B39C2B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6030" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
@@ -275,7 +275,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="588838"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -294,7 +294,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="588838"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2598,7 +2598,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
